--- a/BOM/UniSolder52C_full_BOM.xlsx
+++ b/BOM/UniSolder52C_full_BOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparky\Desktop\MyProjects\Electronics\UniSolder\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\UniSolder-5.2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFB51EE-44D2-48CE-9A2B-C88708CF989C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25068" windowHeight="13836"/>
+    <workbookView xWindow="7968" yWindow="3468" windowWidth="15552" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UniSolder52C" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="315">
   <si>
     <t>Designator</t>
   </si>
@@ -584,9 +585,6 @@
     <t>330</t>
   </si>
   <si>
-    <t>R23, R27, R28, R33, R44, R57, R70</t>
-  </si>
-  <si>
     <t>1.8k</t>
   </si>
   <si>
@@ -969,12 +967,18 @@
   </si>
   <si>
     <t>15V</t>
+  </si>
+  <si>
+    <t>R23, R27, R28, R33, R44, R57</t>
+  </si>
+  <si>
+    <t>R70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1317,13 +1321,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2541,16 +2547,16 @@
     </row>
     <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B56" s="4">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B56" s="4">
-        <v>7</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>166</v>
@@ -2564,16 +2570,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B57" s="4">
         <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>166</v>
@@ -2587,16 +2593,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B58" s="4">
         <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>166</v>
@@ -2610,16 +2616,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B59" s="4">
         <v>2</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>166</v>
@@ -2633,16 +2639,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B60" s="4">
         <v>2</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>166</v>
@@ -2656,16 +2662,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B61" s="4">
         <v>3</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>166</v>
@@ -2679,16 +2685,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B62" s="4">
         <v>4</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>166</v>
@@ -2702,16 +2708,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B63" s="4">
         <v>2</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>166</v>
@@ -2725,16 +2731,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B64" s="4">
         <v>3</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>166</v>
@@ -2748,16 +2754,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B65" s="4">
-        <v>1</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>166</v>
@@ -2771,576 +2777,576 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B67" s="4">
-        <v>1</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="D68" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F67" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G67" s="3" t="s">
+    </row>
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="4">
-        <v>1</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="D69" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E68" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B69" s="4">
-        <v>3</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B70" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>226</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G73" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="B74" s="4">
         <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B76" s="4">
         <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B78" s="4">
         <v>1</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B79" s="4">
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B80" s="4">
         <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B82" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B83" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>281</v>
+        <v>74</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B87" s="4">
         <v>1</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F87" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B90" s="4">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B91" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>62</v>
+        <v>304</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>63</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B92" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>311</v>
+        <v>62</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>63</v>
@@ -3348,24 +3354,47 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B93" s="4">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B94" s="4">
+        <v>3</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B93" s="4">
-        <v>3</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F93" s="3" t="s">
+      <c r="D94" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G94" s="3" t="s">
         <v>63</v>
       </c>
     </row>
